--- a/Assignments_updates.xlsx
+++ b/Assignments_updates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">    Assignment no:</t>
   </si>
@@ -116,6 +116,25 @@
 [list_item_2.append(k + ' : ' + v) for k, v in var2.items()]
 temp_dict['dependencies']['@types/express2']['requires']['@types/server/nodes'] = list_item_2
 print(temp_dict)</t>
+  </si>
+  <si>
+    <t>Assignment 1:</t>
+  </si>
+  <si>
+    <t>Partially completed</t>
+  </si>
+  <si>
+    <t>list1 = ["file1.txt", "file1.pdf", "file1.xlsx", "file1.xls", "file2.txt", "file3.pdf", "file4.mp4", "file2.ppt.txt"]
+final_dict = dict_to_list = {}
+# Lists for names and extensions
+extensions, first_names = ([] for i in range(2))
+for items in list1:
+    words = items.rsplit(".", 1)
+    extensions.append(words)
+print(extensions)
+for items in extensions:
+    final_dict[tuple(items[1:])] = tuple(items[:1])
+print(str(final_dict))</t>
   </si>
 </sst>
 </file>
@@ -1071,13 +1090,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
@@ -1117,6 +1136,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" ht="187.2" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assignments_updates.xlsx
+++ b/Assignments_updates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">    Assignment no:</t>
   </si>
@@ -135,6 +135,20 @@
 for items in extensions:
     final_dict[tuple(items[1:])] = tuple(items[:1])
 print(str(final_dict))</t>
+  </si>
+  <si>
+    <t>Assignment 4:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from datetime import datetime
+list1 = ["random_2020-05-04 18:08_string", "random_string_2019-02-12 12:00", "string_random_2019-02-15 16:00"]
+list2 = []
+for items in list1:
+    # match = re.search('\d{4}-\d{2}-\d{2}' ,items)
+    datetime.strptime(items, "%Y-%m-%d")
+    list2.append(items)
+print(list2)
+</t>
   </si>
 </sst>
 </file>
@@ -1090,13 +1104,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
@@ -1147,6 +1161,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" ht="144" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assignments_updates.xlsx
+++ b/Assignments_updates.xlsx
@@ -140,12 +140,13 @@
     <t>Assignment 4:</t>
   </si>
   <si>
-    <t xml:space="preserve">from datetime import datetime
+    <t xml:space="preserve">import locale
 list1 = ["random_2020-05-04 18:08_string", "random_string_2019-02-12 12:00", "string_random_2019-02-15 16:00"]
 list2 = []
+locale.setlocale(locale.LC_ALL, 'de_DE')
 for items in list1:
     # match = re.search('\d{4}-\d{2}-\d{2}' ,items)
-    datetime.strptime(items, "%Y-%m-%d")
+    items = datetime.strptime(items, "%Y-%m-%d %H:%M")
     list2.append(items)
 print(list2)
 </t>
@@ -1161,7 +1162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="144" spans="1:3">
+    <row r="5" ht="187.2" spans="1:3">
       <c r="A5" t="s">
         <v>11</v>
       </c>

--- a/Assignments_updates.xlsx
+++ b/Assignments_updates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">    Assignment no:</t>
   </si>
@@ -23,6 +23,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">                                                                                     </t>
     </r>
     <r>
@@ -118,7 +125,7 @@
 print(temp_dict)</t>
   </si>
   <si>
-    <t>Assignment 1:</t>
+    <t>Assignment 5.1:</t>
   </si>
   <si>
     <t>Partially completed</t>
@@ -137,7 +144,29 @@
 print(str(final_dict))</t>
   </si>
   <si>
-    <t>Assignment 4:</t>
+    <t>import os
+list_of_files = ["file1.txt", "file1.pdf", "file1.xlsx", "file1.xls", "file2.txt", "file3.pdf", "file4.mp4", "file2.ppt.txt"]
+print("\nList of files : ", list_of_files)
+def find_file(lst):
+    list1 = []
+    converted_dict = {}
+    for file_ in lst:
+        name, ext1 = os.path.splitext(file_)
+        list1.append(ext1)
+        list_2 = list(set(list1))
+    for i in range(0, len(list_2)):
+        ll = []
+        for file1 in lst:
+            name, ext = os.path.splitext(file1)
+            if list_2[i] == ext:
+                ll.append(file1)
+        converted_dict[list_2[i]] = ll
+    print('Output : ', converted_dict)
+    return converted_dict
+find_file(list_of_files)</t>
+  </si>
+  <si>
+    <t>Assignment 5.4:</t>
   </si>
   <si>
     <t xml:space="preserve">import locale
@@ -151,16 +180,68 @@
 print(list2)
 </t>
   </si>
+  <si>
+    <t>Assignment 5.5:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+import os.path
+import shutil
+# Ask for location.
+def check_memory(memory_size_check, path):
+    stat = shutil.disk_usage(path)
+    # print(stat)
+    if memory_size_check &gt; stat[2]:
+        print("Not sufficient memory")
+        exit()
+    else:
+        return True
+user_path = input("Enter location for creating files:")
+no_of_files = int(input("Number of files you want to create? "))
+total_data_size = int(input("Total data size"))
+isExist = os.path.exists(user_path)
+# total_needed_size = no_of_files * 2048    # total needed memory
+if check_memory(total_data_size, user_path) and isExist:
+    for i in range(no_of_files):
+        file_name = user_path + "abc" + str(i) + ".txt"
+        f = open(file_name, "w")
+        size_of_file = total_data_size / no_of_files
+        str1 = "k" * int(size_of_file)
+        f.write(str1)
+        f.close()
+print(str(no_of_files)+" numbers of files have generated"+" of size"+str(size_of_file))</t>
+  </si>
+  <si>
+    <t>Assignment 5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def print_def(input_dict):
+    for key, value in input_dict.items():
+        if isinstance(value, list):
+            list_itr(value)
+        elif value.__contains__('.'):
+            print(value)
+def list_itr(input_list):
+    for i in input_list:
+        if isinstance(i, dict):
+            print_def(i)
+        elif i.__contains__('.'):
+            print(i)
+print("\nList of all the files from a dictionary : ")
+print_def(dict1)
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -186,25 +267,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,40 +292,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,32 +359,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,23 +376,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,187 +413,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,25 +607,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -565,13 +642,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,23 +690,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,8 +699,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,152 +709,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +863,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1105,17 +1189,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B7:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="106.888888888889" customWidth="1"/>
+    <col min="4" max="4" width="113" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1151,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="187.2" spans="1:3">
+    <row r="4" ht="345.6" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1160,17 +1245,42 @@
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="187.2" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="409.5" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="288" spans="1:3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
